--- a/biology/Zoologie/Cicindèle_champêtre/Cicindèle_champêtre.xlsx
+++ b/biology/Zoologie/Cicindèle_champêtre/Cicindèle_champêtre.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Cicind%C3%A8le_champ%C3%AAtre</t>
+          <t>Cicindèle_champêtre</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cicindela campestris
 La Cicindèle champêtre (Cicindela campestris) est une espèce de coléoptères verts, parfois bleuâtres, plus rarement noirâtres. C'est un insecte chasseur redoutable d'une grande rapidité et d'un appétit féroce. Elle attrape ses proies à la course et effectue des vols courts en cas de danger. Sa larve, également carnivore, vit dans un terrier vertical où elle attend qu'une proie passe à sa portée.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Cicind%C3%A8le_champ%C3%AAtre</t>
+          <t>Cicindèle_champêtre</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Taxinomie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Plusieurs sous-espèces sont reconnues :
 Cicindela campestris atlantis (Mandl 1944)
@@ -535,7 +549,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Cicind%C3%A8le_champ%C3%AAtre</t>
+          <t>Cicindèle_champêtre</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -553,7 +567,9 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Ce coléoptère fréquente les milieux ouverts.
 </t>
@@ -566,7 +582,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Cicind%C3%A8le_champ%C3%AAtre</t>
+          <t>Cicindèle_champêtre</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -584,7 +600,9 @@
           <t>Comportement</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Période d'apparition des adultes : mars à septembre.
 Les impressionnantes mandibules de la cicindèle saisissent les proies avec l'efficacité d'une paire de tenailles arrachant un clou.
@@ -598,7 +616,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Cicind%C3%A8le_champ%C3%AAtre</t>
+          <t>Cicindèle_champêtre</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -616,7 +634,9 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet insecte peuple toute l'Europe.[réf. nécessaire]
 </t>
@@ -629,7 +649,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Cicind%C3%A8le_champ%C3%AAtre</t>
+          <t>Cicindèle_champêtre</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -647,7 +667,9 @@
           <t>Philatélie</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Ce coléoptère figure sur une émission de la République démocratique allemande de 1968 (valeur faciale : 10 p.).
 </t>
@@ -660,7 +682,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Cicind%C3%A8le_champ%C3%AAtre</t>
+          <t>Cicindèle_champêtre</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -678,7 +700,9 @@
           <t>Littérature</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t>L'écrivain et entomologiste allemand Ernst Jünger a écrit plusieurs textes sur les cicindèles.
 Kōbō Abe, au début du roman La femme des sables, fait chercher à son héros, collectionneur d'insectes, des cicindèles.
